--- a/Documents/Finance/Timesheets/Sam Beedell/Timesheet - 27-1-14.xlsx
+++ b/Documents/Finance/Timesheets/Sam Beedell/Timesheet - 27-1-14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Supervisor Signature</t>
+  </si>
+  <si>
+    <t>Prakruti Sinha</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -631,6 +634,37 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,36 +672,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,7 +1009,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G6" sqref="G6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1015,17 +1021,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
@@ -1041,13 +1047,13 @@
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -1055,26 +1061,26 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="30" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="10"/>
@@ -1083,28 +1089,30 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="30" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="10"/>
@@ -1113,20 +1121,20 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="30" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="33">
+      <c r="F8" s="32"/>
+      <c r="G8" s="34">
         <v>41666</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="19" t="s">
         <v>9</v>
       </c>
@@ -1427,11 +1435,11 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="4">
         <f>I18</f>
         <v>7</v>
@@ -1444,11 +1452,11 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="4">
         <f>I20</f>
         <v>87.5</v>
@@ -1473,11 +1481,11 @@
       <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" s="18" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -1485,15 +1493,15 @@
       <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="35" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -1501,11 +1509,11 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" s="18" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -1513,15 +1521,15 @@
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -1541,19 +1549,34 @@
       <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A30:C30"/>
@@ -1564,21 +1587,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
